--- a/tests/data/empty_value.xlsx
+++ b/tests/data/empty_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WinUser\PycharmProjects\abc_test\pyAnalysis\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760B36A-2C56-422B-BB14-D36568C27A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE9919-74B0-403D-BACB-816D40033525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>код идентификатор PLU</t>
+  </si>
+  <si>
+    <t>наименование анализируемых позиций</t>
+  </si>
+  <si>
+    <t>данные по анализируемому критерию (продажи/оборот/прибыль)</t>
+  </si>
+  <si>
+    <t>Товар 1</t>
+  </si>
+  <si>
+    <t>Товар 2</t>
+  </si>
+  <si>
+    <t>Товар 3</t>
+  </si>
+  <si>
+    <t>Товар 5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,8 +91,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -341,33 +380,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
